--- a/scripts_figures_and_tables/relative_abundance/tables/coverage_abundances_strain1.xlsx
+++ b/scripts_figures_and_tables/relative_abundance/tables/coverage_abundances_strain1.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,7 +393,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -463,8 +463,32 @@
       <c r="X1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,73 +496,97 @@
         <v>0.632435353200033</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4391818371424523</v>
+        <v>0.4393974168277774</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6319414605846925</v>
+        <v>0.4493089066013006</v>
       </c>
       <c r="E2" t="n">
+        <v>0.6335194188791039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6673157768427789</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.6137177741528178</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.5600482513559456</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0.5625848866572797</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.581521570053209</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>0.5464768148922564</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3293768863682892</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.4096584823401687</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.3299067483529601</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2858201957122471</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>0.2864167677962447</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.3382050257764608</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.3028646883979666</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0.5418061185836966</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.3022745271344543</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.2649012839886506</v>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
+        <v>0.5853761838818446</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.5488430109465758</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.5851177799321027</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.3837600161886163</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
+        <v>0.3845235247633266</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3484211687312401</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.4487883201861856</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.5393743827044946</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.4893047416049244</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.4985614604942286</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
+        <v>0.5372157293234545</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5263266359644805</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.5461027859213058</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.4871100146020673</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.5653076881099184</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.5038166212121797</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.5844982878134367</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AD2" t="n">
         <v>0.6198687257631004</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AE2" t="n">
+        <v>0.55219714399938</v>
+      </c>
+      <c r="AF2" t="n">
         <v>0.5606273828260427</v>
       </c>
-      <c r="X2" t="n">
-        <v>0.550130462490097</v>
-      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,84 +594,108 @@
         <v>0.3675646467999671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5608181628575476</v>
+        <v>0.5606025831722226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3680585394153075</v>
+        <v>0.5506910933986994</v>
       </c>
       <c r="E3" t="n">
+        <v>0.3664805811208961</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3326842231572211</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.3862822258471822</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.4399517486440545</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0.4374151133427203</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.418478429946791</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>0.4535231851077436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6706231136317108</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.5903415176598313</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.6700932516470399</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7141798042877529</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
+        <v>0.7135832322037553</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.6617949742235391</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.6971353116020335</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
+        <v>0.4581938814163033</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6977254728655456</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.7350987160113494</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
+        <v>0.4146238161181554</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.4511569890534242</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.4148822200678973</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.6162399838113838</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
+        <v>0.6154764752366734</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.6515788312687599</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.5512116798138145</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.4606256172955055</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.5106952583950755</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.5014385395057714</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
+        <v>0.4627842706765454</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.4736733640355195</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.4538972140786942</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.5128899853979327</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.4346923118900817</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.4961833787878202</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.4155017121865633</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AD3" t="n">
         <v>0.3801312742368996</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AE3" t="n">
+        <v>0.4478028560006199</v>
+      </c>
+      <c r="AF3" t="n">
         <v>0.4393726171739572</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.4498695375099031</v>
-      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5918039648904545</v>
+        <v>0.5933141162398911</v>
       </c>
       <c r="C4" t="n">
         <v>0.6903071402079209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5542400152177683</v>
+        <v>0.5549258000377028</v>
       </c>
       <c r="E4" t="n">
         <v>0.6379465615468691</v>
@@ -632,64 +704,76 @@
         <v>0.6385690069986263</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5448449881586741</v>
+        <v>0.5443587682023839</v>
       </c>
       <c r="H4" t="n">
         <v>0.6993821024193529</v>
       </c>
       <c r="I4" t="n">
+        <v>0.5546314308031363</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.714871391653405</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.556827574832618</v>
-      </c>
       <c r="K4" t="n">
-        <v>0.5198808398675699</v>
+        <v>0.5198485053999897</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5388783580373917</v>
+        <v>0.6281848790015272</v>
       </c>
       <c r="M4" t="n">
+        <v>0.5479949405358678</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5402916407514635</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.5847128666817604</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.5420484208385434</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>0.5421145898894826</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.6731729945773508</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
+        <v>0.5314466969516085</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.7208905243865437</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.5331769295612266</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>0.7592157288413576</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
+        <v>0.5962721292230511</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.661048092863724</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.5962479397170344</v>
-      </c>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+      <c r="Z4" t="s"/>
+      <c r="AA4" t="s"/>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="s"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4081960351095454</v>
+        <v>0.4066858837601089</v>
       </c>
       <c r="C5" t="n">
         <v>0.3096928597920791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4457599847822318</v>
+        <v>0.4450741999622973</v>
       </c>
       <c r="E5" t="n">
         <v>0.3620534384531308</v>
@@ -698,179 +782,211 @@
         <v>0.3614309930013738</v>
       </c>
       <c r="G5" t="n">
-        <v>0.455155011841326</v>
+        <v>0.4556412317976161</v>
       </c>
       <c r="H5" t="n">
         <v>0.3006178975806471</v>
       </c>
       <c r="I5" t="n">
+        <v>0.4453685691968637</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.285128608346595</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.443172425167382</v>
-      </c>
       <c r="K5" t="n">
-        <v>0.4801191601324302</v>
+        <v>0.4801514946000104</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4611216419626082</v>
+        <v>0.3718151209984728</v>
       </c>
       <c r="M5" t="n">
+        <v>0.4520050594641323</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4597083592485365</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.4152871333182396</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.4579515791614565</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>0.4578854101105175</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.3268270054226491</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
+        <v>0.4685533030483915</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.2791094756134563</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.4668230704387734</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.2407842711586423</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
+        <v>0.403727870776949</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.338951907136276</v>
       </c>
-      <c r="T5" t="n">
-        <v>0.4037520602829657</v>
-      </c>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+      <c r="Z5" t="s"/>
+      <c r="AA5" t="s"/>
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
+      <c r="AD5" t="s"/>
+      <c r="AE5" t="s"/>
+      <c r="AF5" t="s"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>0.3086710021568247</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.246898793886378</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.3088560597808913</v>
-      </c>
       <c r="D6" t="n">
-        <v>0.1453698886996553</v>
+        <v>0.147097704055629</v>
       </c>
       <c r="E6" t="n">
         <v>0.1629162617895906</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1966608752788762</v>
+        <v>0.1930483433629932</v>
       </c>
       <c r="G6" t="n">
         <v>0.2081105927477706</v>
       </c>
       <c r="H6" t="n">
+        <v>0.338793300765507</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.2953945009440818</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.3376491911772211</v>
-      </c>
       <c r="J6" t="n">
-        <v>0.2549019716570922</v>
+        <v>0.2565166105438769</v>
       </c>
       <c r="K6" t="n">
+        <v>0.2611125379647902</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.142011226138745</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>0.1337598637833575</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.1031692489390861</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.1353564937607387</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.3361359891834008</v>
-      </c>
       <c r="O6" t="n">
+        <v>0.3345501341576917</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1847636367775405</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.1215432442380801</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.1876259652456282</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.0787665057798845</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
+        <v>0.1353623430768313</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.1284474604153815</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.138405853131044</v>
-      </c>
-      <c r="T6" t="s"/>
       <c r="U6" t="s"/>
       <c r="V6" t="s"/>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+      <c r="Z6" t="s"/>
+      <c r="AA6" t="s"/>
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
+      <c r="AD6" t="s"/>
+      <c r="AE6" t="s"/>
+      <c r="AF6" t="s"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>0.6913289978431753</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.753101206113622</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.6911439402191087</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.8546301113003447</v>
+        <v>0.8529022959443711</v>
       </c>
       <c r="E7" t="n">
         <v>0.8370837382104094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8033391247211238</v>
+        <v>0.8069516566370067</v>
       </c>
       <c r="G7" t="n">
         <v>0.7918894072522294</v>
       </c>
       <c r="H7" t="n">
+        <v>0.661206699234493</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.7046054990559182</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.662350808822779</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.7450980283429077</v>
+        <v>0.7434833894561232</v>
       </c>
       <c r="K7" t="n">
+        <v>0.7388874620352098</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.857988773861255</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
+        <v>0.8662401362166425</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.8968307510609139</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.8646435062392612</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.6638640108165993</v>
-      </c>
       <c r="O7" t="n">
+        <v>0.6654498658423083</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8152363632224595</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.8784567557619198</v>
       </c>
-      <c r="P7" t="n">
-        <v>0.8123740347543718</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.9212334942201156</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
+        <v>0.8646376569231687</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.8715525395846185</v>
       </c>
-      <c r="S7" t="n">
-        <v>0.861594146868956</v>
-      </c>
-      <c r="T7" t="s"/>
       <c r="U7" t="s"/>
       <c r="V7" t="s"/>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+      <c r="Z7" t="s"/>
+      <c r="AA7" t="s"/>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="s"/>
+      <c r="AE7" t="s"/>
+      <c r="AF7" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
